--- a/PyRICE/model/inputdata/RICE_parameter.xlsx
+++ b/PyRICE/model/inputdata/RICE_parameter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef8a875e15b7533c/Bureaublad/Afstuderen/WRR/PyRICE Ivar Tjallingii/PyRICE2020/3_MOEA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryamalki/Desktop/Hippo-DAI-Lab/PyRICE/model/inputdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{124846D2-B1F3-4E9F-A24C-EBB645675B07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C268FE8A-88A2-754A-BD0F-9110995FFF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{8584D9A5-B3B3-43A1-AA6D-D76DD6B43199}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31440" windowHeight="20720" xr2:uid="{8584D9A5-B3B3-43A1-AA6D-D76DD6B43199}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -786,10 +786,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="3" xr:uid="{8E8B0FAF-24BB-4A25-B8E5-CC96EAE077B4}"/>
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Procent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1647,7 +1647,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1945,13 +1945,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C03DF5E-9830-4260-9BB2-8E60B650FA9B}">
   <dimension ref="A1:AH165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="A1:K5"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1987,7 +1990,7 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
     </row>
-    <row r="2" spans="1:34" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2027,7 +2030,7 @@
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -2065,7 +2068,7 @@
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2101,7 +2104,7 @@
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2137,7 +2140,7 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>3</v>
@@ -2177,7 +2180,7 @@
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2213,7 +2216,7 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
     </row>
-    <row r="8" spans="1:34" ht="18" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -2251,7 +2254,7 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2293,7 +2296,7 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2335,7 +2338,7 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -2377,7 +2380,7 @@
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2419,7 +2422,7 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2461,7 +2464,7 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2503,7 +2506,7 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -2545,7 +2548,7 @@
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -2587,7 +2590,7 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -2629,7 +2632,7 @@
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2697,7 +2700,7 @@
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -2739,7 +2742,7 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -2781,7 +2784,7 @@
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -2823,7 +2826,7 @@
       <c r="AG21" s="1"/>
       <c r="AH21" s="1"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -2865,7 +2868,7 @@
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -2907,7 +2910,7 @@
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -2949,7 +2952,7 @@
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -2991,7 +2994,7 @@
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
@@ -3033,7 +3036,7 @@
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
@@ -3075,7 +3078,7 @@
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -3117,7 +3120,7 @@
       <c r="AG28" s="1"/>
       <c r="AH28" s="1"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -3159,7 +3162,7 @@
       <c r="AG29" s="1"/>
       <c r="AH29" s="1"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -3201,7 +3204,7 @@
       <c r="AG30" s="1"/>
       <c r="AH30" s="1"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -3243,7 +3246,7 @@
       <c r="AG31" s="1"/>
       <c r="AH31" s="1"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -3285,7 +3288,7 @@
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
@@ -3328,7 +3331,7 @@
       <c r="AG33" s="1"/>
       <c r="AH33" s="1"/>
     </row>
-    <row r="34" spans="1:34" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>58</v>
       </c>
@@ -3392,7 +3395,7 @@
       <c r="AG34" s="12"/>
       <c r="AH34" s="12"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>59</v>
       </c>
@@ -3460,7 +3463,7 @@
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>62</v>
       </c>
@@ -3528,7 +3531,7 @@
       <c r="AG36" s="1"/>
       <c r="AH36" s="1"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
@@ -3609,7 +3612,7 @@
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>65</v>
       </c>
@@ -3689,7 +3692,7 @@
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
@@ -3769,7 +3772,7 @@
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
@@ -3847,7 +3850,7 @@
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>72</v>
       </c>
@@ -3923,7 +3926,7 @@
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
     </row>
-    <row r="42" spans="1:34" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>73</v>
       </c>
@@ -3985,7 +3988,7 @@
       <c r="AG42" s="12"/>
       <c r="AH42" s="12"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -4065,7 +4068,7 @@
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>75</v>
       </c>
@@ -4143,7 +4146,7 @@
       <c r="AG44" s="1"/>
       <c r="AH44" s="1"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -4224,7 +4227,7 @@
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>77</v>
       </c>
@@ -4264,7 +4267,7 @@
       <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>79</v>
       </c>
@@ -4302,7 +4305,7 @@
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>80</v>
       </c>
@@ -4383,7 +4386,7 @@
       <c r="AG48" s="1"/>
       <c r="AH48" s="1"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
@@ -4445,7 +4448,7 @@
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
     </row>
-    <row r="50" spans="1:34" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>84</v>
       </c>
@@ -4487,7 +4490,7 @@
       <c r="AG50" s="18"/>
       <c r="AH50" s="18"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>86</v>
       </c>
@@ -4568,7 +4571,7 @@
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>89</v>
       </c>
@@ -4649,7 +4652,7 @@
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>12</v>
       </c>
@@ -4730,7 +4733,7 @@
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -4809,7 +4812,7 @@
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
@@ -4888,7 +4891,7 @@
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
@@ -4969,7 +4972,7 @@
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
     </row>
-    <row r="57" spans="1:34" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>92</v>
       </c>
@@ -5010,7 +5013,7 @@
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>93</v>
       </c>
@@ -5090,7 +5093,7 @@
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>96</v>
       </c>
@@ -5154,7 +5157,7 @@
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>97</v>
       </c>
@@ -5232,7 +5235,7 @@
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>98</v>
       </c>
@@ -5312,7 +5315,7 @@
       <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -5348,7 +5351,7 @@
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>15</v>
       </c>
@@ -5392,7 +5395,7 @@
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>100</v>
       </c>
@@ -5473,7 +5476,7 @@
       <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>102</v>
       </c>
@@ -5541,7 +5544,7 @@
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
     </row>
-    <row r="66" spans="1:34" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>104</v>
       </c>
@@ -5579,7 +5582,7 @@
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>105</v>
       </c>
@@ -5662,7 +5665,7 @@
       <c r="AG67" s="1"/>
       <c r="AH67" s="1"/>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>107</v>
       </c>
@@ -5706,7 +5709,7 @@
       <c r="AG68" s="1"/>
       <c r="AH68" s="1"/>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>109</v>
       </c>
@@ -5784,7 +5787,7 @@
       <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>111</v>
       </c>
@@ -5853,7 +5856,7 @@
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>113</v>
       </c>
@@ -5931,7 +5934,7 @@
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>114</v>
       </c>
@@ -5969,7 +5972,7 @@
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>18</v>
       </c>
@@ -6014,7 +6017,7 @@
       <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
     </row>
-    <row r="74" spans="1:34" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>116</v>
       </c>
@@ -6052,7 +6055,7 @@
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>117</v>
       </c>
@@ -6096,7 +6099,7 @@
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>119</v>
       </c>
@@ -6136,7 +6139,7 @@
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>120</v>
       </c>
@@ -6180,7 +6183,7 @@
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>123</v>
       </c>
@@ -6224,7 +6227,7 @@
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>124</v>
       </c>
@@ -6262,7 +6265,7 @@
       <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>125</v>
       </c>
@@ -6307,7 +6310,7 @@
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>127</v>
       </c>
@@ -6362,7 +6365,7 @@
       <c r="AG81" s="1"/>
       <c r="AH81" s="1"/>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>128</v>
       </c>
@@ -6417,7 +6420,7 @@
       <c r="AG82" s="1"/>
       <c r="AH82" s="1"/>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>130</v>
       </c>
@@ -6472,7 +6475,7 @@
       <c r="AG83" s="1"/>
       <c r="AH83" s="1"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>131</v>
       </c>
@@ -6517,7 +6520,7 @@
       <c r="AG84" s="1"/>
       <c r="AH84" s="1"/>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>132</v>
       </c>
@@ -6561,7 +6564,7 @@
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>133</v>
       </c>
@@ -6606,7 +6609,7 @@
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A87" s="24" t="s">
         <v>134</v>
       </c>
@@ -6648,7 +6651,7 @@
       <c r="AG87" s="1"/>
       <c r="AH87" s="1"/>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A88" s="24" t="s">
         <v>135</v>
       </c>
@@ -6690,7 +6693,7 @@
       <c r="AG88" s="1"/>
       <c r="AH88" s="1"/>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A89" s="24" t="s">
         <v>136</v>
       </c>
@@ -6732,7 +6735,7 @@
       <c r="AG89" s="1"/>
       <c r="AH89" s="1"/>
     </row>
-    <row r="90" spans="1:34" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>137</v>
       </c>
@@ -6770,7 +6773,7 @@
       <c r="AG90" s="1"/>
       <c r="AH90" s="1"/>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>138</v>
       </c>
@@ -6814,7 +6817,7 @@
       <c r="AG91" s="1"/>
       <c r="AH91" s="1"/>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>139</v>
       </c>
@@ -6858,7 +6861,7 @@
       <c r="AG92" s="1"/>
       <c r="AH92" s="1"/>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>141</v>
       </c>
@@ -6902,7 +6905,7 @@
       <c r="AG93" s="1"/>
       <c r="AH93" s="1"/>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>142</v>
       </c>
@@ -6942,7 +6945,7 @@
       <c r="AG94" s="1"/>
       <c r="AH94" s="1"/>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>143</v>
       </c>
@@ -6986,7 +6989,7 @@
       <c r="AG95" s="1"/>
       <c r="AH95" s="1"/>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>144</v>
       </c>
@@ -7030,7 +7033,7 @@
       <c r="AG96" s="1"/>
       <c r="AH96" s="1"/>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>20</v>
       </c>
@@ -7075,7 +7078,7 @@
       <c r="AG97" s="1"/>
       <c r="AH97" s="1"/>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>147</v>
       </c>
@@ -7119,7 +7122,7 @@
       <c r="AG98" s="1"/>
       <c r="AH98" s="1"/>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>149</v>
       </c>
@@ -7163,7 +7166,7 @@
       <c r="AG99" s="1"/>
       <c r="AH99" s="1"/>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>150</v>
       </c>
@@ -7207,7 +7210,7 @@
       <c r="AG100" s="1"/>
       <c r="AH100" s="1"/>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>151</v>
       </c>
@@ -7245,7 +7248,7 @@
       <c r="AG101" s="1"/>
       <c r="AH101" s="1"/>
     </row>
-    <row r="102" spans="1:34" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:34" ht="80" x14ac:dyDescent="0.2">
       <c r="A102" s="26" t="s">
         <v>152</v>
       </c>
@@ -7285,7 +7288,7 @@
       <c r="AG102" s="1"/>
       <c r="AH102" s="1"/>
     </row>
-    <row r="103" spans="1:34" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:34" ht="48" x14ac:dyDescent="0.2">
       <c r="A103" s="26" t="s">
         <v>153</v>
       </c>
@@ -7325,7 +7328,7 @@
       <c r="AG103" s="1"/>
       <c r="AH103" s="1"/>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>154</v>
       </c>
@@ -7363,7 +7366,7 @@
       <c r="AG104" s="1"/>
       <c r="AH104" s="1"/>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>155</v>
       </c>
@@ -7405,7 +7408,7 @@
       <c r="AG105" s="1"/>
       <c r="AH105" s="1"/>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -7441,7 +7444,7 @@
       <c r="AG106" s="1"/>
       <c r="AH106" s="1"/>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -7477,7 +7480,7 @@
       <c r="AG107" s="1"/>
       <c r="AH107" s="1"/>
     </row>
-    <row r="108" spans="1:34" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:34" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
@@ -7513,7 +7516,7 @@
       <c r="AG108" s="18"/>
       <c r="AH108" s="18"/>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A109" s="18"/>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
@@ -7549,7 +7552,7 @@
       <c r="AG109" s="18"/>
       <c r="AH109" s="18"/>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A110" s="18"/>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
@@ -7585,7 +7588,7 @@
       <c r="AG110" s="18"/>
       <c r="AH110" s="18"/>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A111" s="18"/>
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
@@ -7621,7 +7624,7 @@
       <c r="AG111" s="18"/>
       <c r="AH111" s="18"/>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A112" s="18"/>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
@@ -7657,7 +7660,7 @@
       <c r="AG112" s="18"/>
       <c r="AH112" s="18"/>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A113" s="18"/>
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
@@ -7693,7 +7696,7 @@
       <c r="AG113" s="18"/>
       <c r="AH113" s="18"/>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A114" s="18"/>
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
@@ -7729,7 +7732,7 @@
       <c r="AG114" s="18"/>
       <c r="AH114" s="18"/>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -7765,7 +7768,7 @@
       <c r="AG115" s="1"/>
       <c r="AH115" s="1"/>
     </row>
-    <row r="116" spans="1:34" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A116" s="28" t="s">
         <v>157</v>
       </c>
@@ -7805,7 +7808,7 @@
       <c r="AG116" s="1"/>
       <c r="AH116" s="1"/>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -7841,7 +7844,7 @@
       <c r="AG117" s="1"/>
       <c r="AH117" s="1"/>
     </row>
-    <row r="118" spans="1:34" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>84</v>
       </c>
@@ -7903,7 +7906,7 @@
       <c r="AG118" s="1"/>
       <c r="AH118" s="1"/>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>86</v>
       </c>
@@ -7979,7 +7982,7 @@
       <c r="AG119" s="1"/>
       <c r="AH119" s="1"/>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>89</v>
       </c>
@@ -8055,7 +8058,7 @@
       <c r="AG120" s="1"/>
       <c r="AH120" s="1"/>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>12</v>
       </c>
@@ -8119,7 +8122,7 @@
       <c r="AG121" s="1"/>
       <c r="AH121" s="1"/>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>56</v>
       </c>
@@ -8181,7 +8184,7 @@
       <c r="AG122" s="1"/>
       <c r="AH122" s="1"/>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>57</v>
       </c>
@@ -8243,7 +8246,7 @@
       <c r="AG123" s="1"/>
       <c r="AH123" s="1"/>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>52</v>
       </c>
@@ -8319,7 +8322,7 @@
       <c r="AG124" s="1"/>
       <c r="AH124" s="1"/>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>158</v>
       </c>
@@ -8359,7 +8362,7 @@
       <c r="AG125" s="1"/>
       <c r="AH125" s="1"/>
     </row>
-    <row r="126" spans="1:34" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
         <v>159</v>
       </c>
@@ -8397,7 +8400,7 @@
       <c r="AG126" s="1"/>
       <c r="AH126" s="1"/>
     </row>
-    <row r="127" spans="1:34" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
         <v>160</v>
       </c>
@@ -8438,7 +8441,7 @@
       <c r="AG127" s="1"/>
       <c r="AH127" s="1"/>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A128" s="33" t="s">
         <v>161</v>
       </c>
@@ -8479,7 +8482,7 @@
       <c r="AG128" s="1"/>
       <c r="AH128" s="1"/>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -8515,7 +8518,7 @@
       <c r="AG129" s="1"/>
       <c r="AH129" s="1"/>
     </row>
-    <row r="130" spans="1:34" ht="91.5" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:34" ht="100" x14ac:dyDescent="0.25">
       <c r="A130" s="35" t="s">
         <v>162</v>
       </c>
@@ -8561,7 +8564,7 @@
       <c r="AG130" s="1"/>
       <c r="AH130" s="1"/>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A131" s="17"/>
       <c r="B131" s="1" t="s">
         <v>22</v>
@@ -8608,7 +8611,7 @@
       <c r="AG131" s="1"/>
       <c r="AH131" s="1"/>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A132" s="17"/>
       <c r="B132" s="1" t="s">
         <v>82</v>
@@ -8655,7 +8658,7 @@
       <c r="AG132" s="1"/>
       <c r="AH132" s="1"/>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1" t="s">
         <v>24</v>
@@ -8702,7 +8705,7 @@
       <c r="AG133" s="1"/>
       <c r="AH133" s="1"/>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1" t="s">
         <v>25</v>
@@ -8749,7 +8752,7 @@
       <c r="AG134" s="1"/>
       <c r="AH134" s="1"/>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A135" s="17"/>
       <c r="B135" s="1" t="s">
         <v>83</v>
@@ -8796,7 +8799,7 @@
       <c r="AG135" s="1"/>
       <c r="AH135" s="1"/>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A136" s="17"/>
       <c r="B136" s="1" t="s">
         <v>27</v>
@@ -8843,7 +8846,7 @@
       <c r="AG136" s="1"/>
       <c r="AH136" s="1"/>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A137" s="17"/>
       <c r="B137" s="1" t="s">
         <v>28</v>
@@ -8890,7 +8893,7 @@
       <c r="AG137" s="1"/>
       <c r="AH137" s="1"/>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1" t="s">
         <v>29</v>
@@ -8937,7 +8940,7 @@
       <c r="AG138" s="1"/>
       <c r="AH138" s="1"/>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1" t="s">
         <v>30</v>
@@ -8984,7 +8987,7 @@
       <c r="AG139" s="1"/>
       <c r="AH139" s="1"/>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1" t="s">
         <v>31</v>
@@ -9031,7 +9034,7 @@
       <c r="AG140" s="1"/>
       <c r="AH140" s="1"/>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1" t="s">
         <v>32</v>
@@ -9078,7 +9081,7 @@
       <c r="AG141" s="1"/>
       <c r="AH141" s="1"/>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1" t="s">
         <v>33</v>
@@ -9125,7 +9128,7 @@
       <c r="AG142" s="1"/>
       <c r="AH142" s="1"/>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -9161,7 +9164,7 @@
       <c r="AG143" s="1"/>
       <c r="AH143" s="1"/>
     </row>
-    <row r="144" spans="1:34" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="144" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>167</v>
       </c>
@@ -9199,7 +9202,7 @@
       <c r="AG144" s="1"/>
       <c r="AH144" s="1"/>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="32" t="str">
         <f>+B152</f>
@@ -9274,7 +9277,7 @@
       <c r="AG145" s="38"/>
       <c r="AH145" s="1"/>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="39">
         <f>+C152</f>
@@ -9385,7 +9388,7 @@
       </c>
       <c r="AH146" s="1"/>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="39">
         <f>+D152</f>
@@ -9457,7 +9460,7 @@
       <c r="AG147" s="1"/>
       <c r="AH147" s="1"/>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -9493,7 +9496,7 @@
       <c r="AG148" s="1"/>
       <c r="AH148" s="1"/>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1" t="s">
@@ -9531,7 +9534,7 @@
       <c r="AG149" s="1"/>
       <c r="AH149" s="1"/>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1" t="e">
@@ -9573,7 +9576,7 @@
       <c r="AG150" s="1"/>
       <c r="AH150" s="1"/>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="32" t="e">
         <f>+[5]Impacts!A275</f>
@@ -9634,7 +9637,7 @@
       <c r="AG151" s="1"/>
       <c r="AH151" s="1"/>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="32" t="str">
         <f>+[5]Impacts!A276</f>
@@ -9703,7 +9706,7 @@
       <c r="AG152" s="1"/>
       <c r="AH152" s="1"/>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="32" t="str">
         <f>+[5]Impacts!A277</f>
@@ -9772,7 +9775,7 @@
       <c r="AG153" s="1"/>
       <c r="AH153" s="1"/>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="32" t="str">
         <f>+[5]Impacts!A278</f>
@@ -9841,7 +9844,7 @@
       <c r="AG154" s="1"/>
       <c r="AH154" s="1"/>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="32" t="str">
         <f>+[5]Impacts!A279</f>
@@ -9910,7 +9913,7 @@
       <c r="AG155" s="1"/>
       <c r="AH155" s="1"/>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="32" t="str">
         <f>+[5]Impacts!A280</f>
@@ -9979,7 +9982,7 @@
       <c r="AG156" s="1"/>
       <c r="AH156" s="1"/>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="32" t="str">
         <f>+[5]Impacts!A281</f>
@@ -10048,7 +10051,7 @@
       <c r="AG157" s="1"/>
       <c r="AH157" s="1"/>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="32" t="str">
         <f>+[5]Impacts!A282</f>
@@ -10117,7 +10120,7 @@
       <c r="AG158" s="1"/>
       <c r="AH158" s="1"/>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="32" t="str">
         <f>+[5]Impacts!A283</f>
@@ -10186,7 +10189,7 @@
       <c r="AG159" s="1"/>
       <c r="AH159" s="1"/>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="32" t="str">
         <f>+[5]Impacts!A284</f>
@@ -10255,7 +10258,7 @@
       <c r="AG160" s="1"/>
       <c r="AH160" s="1"/>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="32" t="str">
         <f>+[5]Impacts!A285</f>
@@ -10324,7 +10327,7 @@
       <c r="AG161" s="1"/>
       <c r="AH161" s="1"/>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="32" t="str">
         <f>+[5]Impacts!A286</f>
@@ -10393,7 +10396,7 @@
       <c r="AG162" s="1"/>
       <c r="AH162" s="1"/>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="32" t="str">
         <f>+[5]Impacts!A287</f>
@@ -10462,7 +10465,7 @@
       <c r="AG163" s="1"/>
       <c r="AH163" s="1"/>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -10498,7 +10501,7 @@
       <c r="AG164" s="1"/>
       <c r="AH164" s="1"/>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
